--- a/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,77; -11,84</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 14,71</t>
+          <t>-56,42; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,88; -12,48</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 17,85</t>
+          <t>-69,64; —</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-25,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,25</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,82%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 9,37</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-44,77; -11,84</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 14,71</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,18; 9,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-31,02; 11,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 10,4</t>
+          <t>-44,88; -12,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 13,87</t>
+          <t>-11,25; 17,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>-21,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>-18,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>-22,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>-19,4%</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-38,71; -7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 100,0</t>
+          <t>-36,9; -0,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,19 +902,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>-39,82; -7,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,64; —</t>
+          <t>-37,67; -1,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-21,88</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,46</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-11,82%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,71; -7,24</t>
+          <t>-20,18; 9,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -0,62</t>
+          <t>-31,02; 11,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -7,82</t>
+          <t>-21,52; 10,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -1,65</t>
+          <t>-35,04; 13,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 100,0</t>
+          <t>-56,21; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,64; —</t>
+          <t>-64,5; —</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,79</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 18,1</t>
+          <t>-8,89; 15,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 32,66</t>
+          <t>-32,49; 32,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 22,96</t>
+          <t>-9,24; 18,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 56,42</t>
+          <t>-35,12; 56,2</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,77; -11,84</t>
+          <t>-41,5; -11,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 14,71</t>
+          <t>-11,04; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,88; -12,48</t>
+          <t>-42,08; -12,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 17,85</t>
+          <t>-11,61; 16,73</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,71; -7,24</t>
+          <t>-41,11; -7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -0,62</t>
+          <t>-36,59; -1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -7,82</t>
+          <t>-42,29; -8,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -1,65</t>
+          <t>-37,43; -1,59</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 9,02</t>
+          <t>-21,33; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 11,81</t>
+          <t>-33,38; 13,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 10,4</t>
+          <t>-22,56; 9,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 13,87</t>
+          <t>-35,77; 16,88</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -3,56</t>
+          <t>-18,81; -3,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 3,5</t>
+          <t>-17,06; 3,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -3,97</t>
+          <t>-20,04; -3,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 4,18</t>
+          <t>-18,58; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,46</t>
+          <t>0,0; 15,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 15,37</t>
+          <t>-8,72; 15,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 32,47</t>
+          <t>-31,88; 31,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 18,53</t>
+          <t>-9,28; 18,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 56,2</t>
+          <t>-35,1; 53,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,26</t>
+          <t>0,0; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,5; -11,69</t>
+          <t>-42,39; -11,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 13,79</t>
+          <t>-10,93; 14,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -12,29</t>
+          <t>-43,99; -12,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 16,73</t>
+          <t>-11,43; 17,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,11; -7,24</t>
+          <t>-38,9; -6,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -1,12</t>
+          <t>-35,48; -0,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -8,16</t>
+          <t>-40,06; -7,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -1,59</t>
+          <t>-36,66; -0,93</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 8,3</t>
+          <t>-21,08; 7,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 13,42</t>
+          <t>-30,73; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 9,31</t>
+          <t>-23,25; 8,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 16,88</t>
+          <t>-34,72; 14,69</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -3,22</t>
+          <t>-18,8; -4,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 3,14</t>
+          <t>-15,76; 4,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -3,64</t>
+          <t>-20,03; -4,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 3,4</t>
+          <t>-17,36; 5,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 12,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 24,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-27,26; 32,24</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-56,21; 100,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>-2,97; 32,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,5; —</t>
+          <t>-30,88; 56,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-25,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,96</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 15,17</t>
+          <t>-44,77; -11,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 31,55</t>
+          <t>-10,78; 14,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 18,01</t>
+          <t>-44,88; -12,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 53,41</t>
+          <t>-11,25; 17,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>-21,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-18,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>-22,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-19,4%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -11,98</t>
+          <t>-38,71; -7,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 14,39</t>
+          <t>-36,9; -0,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -12,71</t>
+          <t>-39,82; -7,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 17,18</t>
+          <t>-37,67; -1,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,88</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,46</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-11,82%</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,9; -6,73</t>
+          <t>-20,18; 9,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,48; -0,57</t>
+          <t>-31,02; 11,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,19 +902,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -7,39</t>
+          <t>-21,52; 10,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,66; -0,93</t>
+          <t>-35,04; 13,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,25</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,82%</t>
+          <t>-7,49%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-19,16; -3,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; 3,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-21,08; 7,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-30,73; 11,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 8,41</t>
+          <t>-20,3; -3,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 14,69</t>
+          <t>-17,48; 4,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-11,09</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-11,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-7,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; -4,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 4,37</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-20,03; -4,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-17,36; 5,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
